--- a/Project/03-third week/王子健/web测试/caseTemplate.xlsx
+++ b/Project/03-third week/王子健/web测试/caseTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="用例" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="274">
   <si>
     <t>1. 正常显示</t>
   </si>
@@ -3773,6 +3773,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3825,6 +3831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3845,6 +3857,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3877,6 +3895,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3894,6 +3918,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3911,6 +3941,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3925,6 +3961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3942,6 +3984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3956,6 +4004,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3973,6 +4027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -3990,6 +4050,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4004,6 +4070,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4021,6 +4093,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4035,6 +4113,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4052,6 +4136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4066,6 +4156,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4083,6 +4179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4135,6 +4237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4152,6 +4260,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4204,6 +4318,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试登录</t>
     </r>
     <r>
@@ -4245,6 +4365,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4297,6 +4423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4314,6 +4446,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4366,6 +4504,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4393,6 +4537,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4445,6 +4595,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4481,6 +4637,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4533,6 +4695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4550,6 +4718,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4583,6 +4757,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4600,6 +4780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4651,24 +4837,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入成功</t>
-    </r>
-  </si>
-  <si>
     <t>点击收藏夹中取消收藏按钮（收藏家测试法）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4721,6 +4899,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4738,6 +4922,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4790,6 +4980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4812,6 +5008,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试登录</t>
     </r>
     <r>
@@ -4835,6 +5037,35 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏成功</t>
+    </r>
+  </si>
+  <si>
+    <t>重复选择多个商品加入收藏夹（强迫症测试法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4863,61 +5094,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>选择商品加入收藏夹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收藏成功</t>
-    </r>
-  </si>
-  <si>
-    <t>重复选择多个商品加入收藏夹（强迫症测试法）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>重复选择多个商品加入收藏夹</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4935,6 +5122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4956,6 +5149,35 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳转到指定页码</t>
+    </r>
+  </si>
+  <si>
+    <t>点击底部首页按钮（收藏家测试法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -5003,28 +5225,20 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>点击底部页码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳转到指定页码</t>
-    </r>
-  </si>
-  <si>
-    <t>点击底部首页按钮（收藏家测试法）</t>
-  </si>
-  <si>
-    <r>
+      <t>点击底部首页</t>
+    </r>
+  </si>
+  <si>
+    <t>点击底部尾页按钮（收藏家测试法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -5072,24 +5286,30 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>点击底部首页</t>
-    </r>
-  </si>
-  <si>
-    <t>点击底部尾页按钮（收藏家测试法）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录</t>
+      <t>点击底部尾页</t>
+    </r>
+  </si>
+  <si>
+    <t>收藏商品后，重新登录查看收藏夹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录选择商品加入收藏夹</t>
     </r>
     <r>
       <rPr>
@@ -5108,7 +5328,545 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>进入收藏夹</t>
+      <t>重新登录打开收藏夹</t>
+    </r>
+  </si>
+  <si>
+    <t>用谷歌浏览器打开收藏夹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用谷歌浏览器打开收藏夹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常显示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览器打开收藏夹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览器打开收藏夹</t>
+    </r>
+  </si>
+  <si>
+    <t>用火狐浏览器打开收藏夹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用火狐浏览器打开收藏夹</t>
+    </r>
+  </si>
+  <si>
+    <t>输入为空登录（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入登录页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入为用户名为空登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录失败</t>
+    </r>
+  </si>
+  <si>
+    <t>合法输入登录（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入登录页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入合法用户名密码登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录成功</t>
+    </r>
+  </si>
+  <si>
+    <t>非法输入进行登录（用户输入）</t>
+  </si>
+  <si>
+    <t>测试登录-&gt;退出登录场景</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合法输入进行登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出成功</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复进行登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出（强迫症测试法）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录成功后退出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复以上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无错误发生</t>
+    </r>
+  </si>
+  <si>
+    <t>点击忘记密码（收藏家测试法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登陆页面的忘记密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳转成功</t>
+    </r>
+  </si>
+  <si>
+    <t>点击登陆页面的注册新用户按钮（收藏家测试法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登陆页面的新用户注册按钮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳转成功</t>
+    </r>
+  </si>
+  <si>
+    <t>合法输入并注册（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入全部合法</t>
     </r>
     <r>
       <rPr>
@@ -5127,38 +5885,30 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>点击底部尾页</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳转到尾页</t>
-    </r>
-  </si>
-  <si>
-    <t>收藏商品后，重新登录查看收藏夹</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录选择商品加入收藏夹</t>
+      <t>点击注册</t>
+    </r>
+  </si>
+  <si>
+    <t>重复进行多次注册（强迫症测试法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
     </r>
     <r>
       <rPr>
@@ -5177,14 +5927,98 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>重新登录打开收藏夹</t>
-    </r>
-  </si>
-  <si>
-    <t>用谷歌浏览器打开收藏夹</t>
-  </si>
-  <si>
-    <r>
+      <t>输入全部合法并注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复以上步骤多次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未出现问题</t>
+    </r>
+  </si>
+  <si>
+    <t>输入用户名为空进行注册（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入用户名为空进行注册</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -5194,110 +6028,30 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>用谷歌浏览器打开收藏夹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常显示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浏览器打开收藏夹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浏览器打开收藏夹</t>
-    </r>
-  </si>
-  <si>
-    <t>用火狐浏览器打开收藏夹</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用火狐浏览器打开收藏夹</t>
-    </r>
-  </si>
-  <si>
-    <t>输入为空登录（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入登录页面</t>
+      <t>注册失败</t>
+    </r>
+  </si>
+  <si>
+    <t>非法输入用户名进行注册（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
     </r>
     <r>
       <rPr>
@@ -5316,38 +6070,30 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输入为用户名为空登录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录失败</t>
-    </r>
-  </si>
-  <si>
-    <t>合法输入登录（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入登录页面</t>
+      <t>非法输入注册</t>
+    </r>
+  </si>
+  <si>
+    <t>合法输入用户名进行注册（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
     </r>
     <r>
       <rPr>
@@ -5366,41 +6112,44 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输入合法用户名密码登录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录成功</t>
-    </r>
-  </si>
-  <si>
-    <t>非法输入进行登录（用户输入）</t>
-  </si>
-  <si>
-    <t>测试登录-&gt;退出登录场景</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合法输入进行登录</t>
+      <t>合法输入注册</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册成功</t>
+    </r>
+  </si>
+  <si>
+    <t>密码输入为空进行注册（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
     </r>
     <r>
       <rPr>
@@ -5419,58 +6168,111 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>退出登录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出成功</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>重复进行登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出（强迫症测试法）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录成功后退出</t>
+      <t>输入密码为空注册</t>
+    </r>
+  </si>
+  <si>
+    <t>合法输入密码进行注册（用户输入）</t>
+  </si>
+  <si>
+    <t>非法输入密码进行注册（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入非法密码注册</t>
+    </r>
+  </si>
+  <si>
+    <t>输入正确的重复密码（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合法输入重复</t>
+    </r>
+  </si>
+  <si>
+    <t>输入空的重复密码（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入注册页面</t>
     </r>
     <r>
       <rPr>
@@ -5489,87 +6291,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>重复以上</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无错误发生</t>
-    </r>
-  </si>
-  <si>
-    <t>点击忘记密码（收藏家测试法）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击登陆页面的忘记密码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳转成功</t>
-    </r>
-  </si>
-  <si>
-    <t>点击登陆页面的注册新用户按钮（收藏家测试法）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击登陆页面的新用户注册按钮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳转成功</t>
-    </r>
-  </si>
-  <si>
-    <t>合法输入并注册（用户输入）</t>
+      <t>重复输入密码为空</t>
+    </r>
+  </si>
+  <si>
+    <t>输入不一样的重复密码进行注册（用户输入）</t>
   </si>
   <si>
     <r>
@@ -5601,47 +6327,34 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输入全部合法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击注册</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册成功</t>
-    </r>
-  </si>
-  <si>
-    <t>重复进行多次注册（强迫症测试法）</t>
-  </si>
-  <si>
-    <r>
+      <t>输入不一样的重复密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册失败</t>
+    </r>
+  </si>
+  <si>
+    <t>输入空的验证码（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -5670,47 +6383,20 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输入全部合法并注册</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重复以上步骤多次</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未出现问题</t>
-    </r>
-  </si>
-  <si>
-    <t>输入用户名为空进行注册（用户输入）</t>
-  </si>
-  <si>
-    <r>
+      <t>输入空的验证码注册</t>
+    </r>
+  </si>
+  <si>
+    <t>合法输入验证码（用户输入）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -5739,273 +6425,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输入用户名为空进行注册</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册失败</t>
-    </r>
-  </si>
-  <si>
-    <t>非法输入用户名进行注册（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入注册页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非法输入注册</t>
-    </r>
-  </si>
-  <si>
-    <t>合法输入用户名进行注册（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入注册页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合法输入注册</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册成功</t>
-    </r>
-  </si>
-  <si>
-    <t>密码输入为空进行注册（用户输入）</t>
-  </si>
-  <si>
-    <t>合法输入密码进行注册（用户输入）</t>
-  </si>
-  <si>
-    <t>非法输入密码进行注册（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册失败</t>
-    </r>
-  </si>
-  <si>
-    <t>输入正确的重复密码（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入注册页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合法输入重复</t>
-    </r>
-  </si>
-  <si>
-    <t>输入空的重复密码（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入注册页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重复输入密码为空</t>
-    </r>
-  </si>
-  <si>
-    <t>输入空的验证码（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入注册页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入空的验证码注册</t>
-    </r>
-  </si>
-  <si>
-    <t>合法输入验证码（用户输入）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入注册页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>输入合法的验证码注册</t>
     </r>
   </si>
@@ -6014,6 +6433,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -6093,10 +6518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -6126,64 +6551,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -6199,6 +6566,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6206,8 +6580,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6237,9 +6619,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6261,18 +6671,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6303,7 +6728,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6315,13 +6764,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6333,91 +6818,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6435,7 +6848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6447,43 +6860,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6512,45 +6937,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6575,13 +6961,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6596,164 +6986,199 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7211,12 +7636,12 @@
   <sheetPr/>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D99" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D93" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H110" sqref="H110"/>
+      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8769,7 +9194,7 @@
         <v>178</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -8785,14 +9210,14 @@
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -8808,14 +9233,14 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -8831,14 +9256,14 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -8854,14 +9279,14 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="7" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -8877,14 +9302,14 @@
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -8900,14 +9325,14 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -8923,14 +9348,14 @@
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="2" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -8946,14 +9371,14 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -8969,14 +9394,14 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -8992,11 +9417,11 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>159</v>
@@ -9015,14 +9440,14 @@
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -9038,14 +9463,14 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -9061,11 +9486,11 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>0</v>
@@ -9084,14 +9509,14 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -9107,14 +9532,14 @@
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -9130,14 +9555,14 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -9153,14 +9578,14 @@
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -9176,14 +9601,14 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -9199,14 +9624,14 @@
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -9222,14 +9647,14 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -9245,14 +9670,14 @@
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -9268,14 +9693,14 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -9291,14 +9716,14 @@
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -9314,14 +9739,14 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -9337,14 +9762,14 @@
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -9360,14 +9785,14 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -9383,14 +9808,14 @@
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -9406,14 +9831,14 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -9429,14 +9854,14 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -9452,14 +9877,14 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -9469,20 +9894,20 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" ht="68.4" spans="1:11">
+    <row r="98" ht="79.2" spans="1:11">
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="2" t="s">
         <v>252</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -9498,14 +9923,14 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -9521,14 +9946,14 @@
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -9544,14 +9969,14 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -9563,7 +9988,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9587,11 +10012,11 @@
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A56:A67">
       <formula1>系统数据!$A$1:$A$16</formula1>
     </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="I2:I35 I36:I50 I51:I101">
+      <formula1>"功能测试,性能测试,配置相关,安装部署,安全相关,接口测试,单元测试,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B89 B90 B91 B92 B93 B94 B95 B96 B97 B98 B99 B100 B101">
       <formula1>系统数据!$G$1:$G$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="I2:I35 I36:I50 I51:I101">
-      <formula1>"功能测试,性能测试,配置相关,安装部署,安全相关,接口测试,单元测试,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9613,27 +10038,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9648,42 +10073,42 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:1">
